--- a/xlsx/海录_intext.xlsx
+++ b/xlsx/海录_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中国</t>
   </si>
   <si>
-    <t>政策_政策_美國_海录</t>
+    <t>政策_政策_美国_海录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E4%BB%A3</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%9B%E7%92%B0%E5%BF%97%E7%95%A5</t>
   </si>
   <si>
-    <t>瀛環志略</t>
+    <t>瀛环志略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%E6%89%BF%E9%92%A7</t>
